--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/42/word_level_predictions_42.xlsx
@@ -1178,156 +1178,156 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Disabled</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Disabled</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G46" s="2" t="b">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G54" s="2" t="b">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4090,156 +4090,156 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K72" t="b">
-        <v>1</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E73" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F73" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K73" t="b">
-        <v>1</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="G73" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5754,208 +5754,208 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" t="n">
         <v>4</v>
       </c>
-      <c r="B103" s="2" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C103" s="2" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>Only</t>
         </is>
       </c>
-      <c r="D103" s="2" t="n">
+      <c r="D103" t="n">
         <v>9</v>
       </c>
-      <c r="E103" s="2" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F103" s="2" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G103" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L103" s="2" t="inlineStr">
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" t="n">
         <v>4</v>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>infrared</t>
         </is>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" t="n">
         <v>10</v>
       </c>
-      <c r="E104" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2" t="inlineStr">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" t="n">
         <v>4</v>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>sensors</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" t="n">
         <v>11</v>
       </c>
-      <c r="E105" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G105" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="2" t="inlineStr">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" t="n">
         <v>4</v>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" t="n">
         <v>12</v>
       </c>
-      <c r="E106" s="2" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F106" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G107" t="b">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -6326,314 +6326,314 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" t="n">
         <v>5</v>
       </c>
-      <c r="B114" s="2" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C114" s="2" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>Land</t>
         </is>
       </c>
-      <c r="D114" s="2" t="n">
+      <c r="D114" t="n">
         <v>3</v>
       </c>
-      <c r="E114" s="2" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F114" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G114" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L114" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" t="n">
         <v>5</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" t="n">
         <v>4</v>
       </c>
-      <c r="E115" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F115" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" t="n">
         <v>5</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" t="n">
         <v>5</v>
       </c>
-      <c r="E116" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" t="n">
         <v>5</v>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" t="n">
         <v>6</v>
       </c>
-      <c r="E117" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F117" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="inlineStr">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" t="n">
         <v>5</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" t="n">
         <v>7</v>
       </c>
-      <c r="E118" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>5</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>8</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
-        <is>
-          <t>Missed_E-NonEvent</t>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G120" t="b">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -6869,757 +6869,757 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>5</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>14</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>5</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>15</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>5</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>propeller</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>16</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>5</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>17</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>5</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>18</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>5</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>beeping</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>19</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>5</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ESC</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
         <v>5</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
-        <is>
-          <t>replace</t>
-        </is>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>If</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>21</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
         <v>5</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C126" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="D133" t="n">
+        <v>22</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
         <v>5</v>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
-        <is>
-          <t>propeller</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>issue</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>23</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
         <v>5</v>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>persists,</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>24</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
         <v>5</v>
       </c>
-      <c r="B129" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D129" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>25</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
         <v>5</v>
       </c>
-      <c r="B130" s="2" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>beeping</t>
-        </is>
-      </c>
-      <c r="D130" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>26</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
         <v>5</v>
       </c>
-      <c r="B131" s="2" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C131" s="2" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="D131" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E131" s="2" t="inlineStr">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>27</v>
+      </c>
+      <c r="E138" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>If</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C133" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D133" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C134" s="2" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>persists,</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B136" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C136" s="2" t="inlineStr">
-        <is>
-          <t>contact</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C138" s="2" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D138" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="E138" s="2" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G138" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" s="2" t="inlineStr">
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7678,104 +7678,104 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" t="n">
         <v>6</v>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C140" s="2" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" s="2" t="inlineStr">
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F140" s="2" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" t="n">
         <v>6</v>
       </c>
-      <c r="B141" s="2" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C141" s="2" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>abnormal</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" s="2" t="inlineStr">
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F141" s="2" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="F142" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G142" s="2" t="b">
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/42/word_level_predictions_42.xlsx
@@ -1178,156 +1178,156 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>13</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Disabled</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Disabled</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G46" s="2" t="b">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G54" s="2" t="b">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4090,156 +4090,156 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" t="n">
         <v>3</v>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D71" s="2" t="n">
+      <c r="D71" t="n">
         <v>5</v>
       </c>
-      <c r="E71" s="2" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L71" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" t="n">
         <v>3</v>
       </c>
-      <c r="B72" s="2" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D72" s="2" t="n">
+      <c r="D72" t="n">
         <v>6</v>
       </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I72" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K72" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L72" s="2" t="inlineStr">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" t="n">
         <v>3</v>
       </c>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C73" s="2" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D73" s="2" t="n">
+      <c r="D73" t="n">
         <v>7</v>
       </c>
-      <c r="E73" s="2" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F73" s="2" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G73" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L73" s="2" t="inlineStr">
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5754,208 +5754,208 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
+      <c r="A103" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C103" s="2" t="inlineStr">
         <is>
           <t>Only</t>
         </is>
       </c>
-      <c r="D103" t="n">
+      <c r="D103" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E103" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F103" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G103" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I103" t="b">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K103" t="b">
-        <v>1</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="G103" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>infrared</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K104" t="b">
-        <v>1</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>sensors</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E106" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G107" t="b">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6326,314 +6326,314 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C114" s="2" t="inlineStr">
         <is>
           <t>Land</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E114" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G114" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K114" t="b">
-        <v>1</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G117" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E119" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
+        <is>
+          <t>Missed_E-NonEvent</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G120" t="b">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -6893,733 +6893,733 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>replace</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" s="2" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" s="2" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" s="2" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E131" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>If</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C134" s="2" t="inlineStr">
         <is>
           <t>issue</t>
         </is>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" s="2" t="inlineStr">
         <is>
           <t>persists,</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" s="2" t="inlineStr">
         <is>
           <t>contact</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
+      <c r="A137" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B137" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C137" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D137" t="n">
+      <c r="D137" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K137" t="b">
-        <v>1</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
+      <c r="A138" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B138" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C138" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D138" t="n">
+      <c r="D138" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="E138" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="F138" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="G138" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7678,104 +7678,104 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="inlineStr">
+      <c r="D140" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F140" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>abnormal</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>6</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>abnormal</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="F142" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G142" s="2" t="b">
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
